--- a/data/trans_orig/IP07A14-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A14-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79146994-A6C0-4B9E-A9F0-E9A62F43A988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A679F4B3-B913-4B59-9142-19A44EEAB4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F6CC8F8-AE5F-4702-B8C8-2B35747EF339}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37820D80-0704-4B79-912F-9C4890B706E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="377">
   <si>
     <t>Menores según frecuencia de sentirse feliz en casa en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>55,88%</t>
   </si>
   <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
   </si>
   <si>
     <t>59,77%</t>
   </si>
   <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
   </si>
   <si>
     <t>57,89%</t>
   </si>
   <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>39,98%</t>
   </si>
   <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
   </si>
   <si>
     <t>36,28%</t>
   </si>
   <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
   </si>
   <si>
     <t>38,07%</t>
   </si>
   <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -136,28 +136,28 @@
     <t>4,14%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -190,730 +190,736 @@
     <t>64,55%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
   </si>
   <si>
     <t>60,13%</t>
   </si>
   <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
     <t>58,74%</t>
   </si>
   <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
     <t>66,36%</t>
   </si>
   <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 47,18%)</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 47,18%)</t>
   </si>
   <si>
     <t>54,9%</t>
   </si>
   <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
   </si>
   <si>
     <t>68,02%</t>
   </si>
   <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
   </si>
   <si>
     <t>61,0%</t>
   </si>
   <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
   </si>
   <si>
     <t>27,6%</t>
   </si>
   <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
   </si>
   <si>
     <t>33,53%</t>
   </si>
   <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
+    <t>24,49%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>15,13%</t>
+    <t>15,33%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>3,68%</t>
@@ -928,73 +934,73 @@
     <t>67,43%</t>
   </si>
   <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
   <si>
     <t>62,71%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
   </si>
   <si>
     <t>65,05%</t>
   </si>
   <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
   </si>
   <si>
     <t>29,14%</t>
   </si>
   <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
   </si>
   <si>
     <t>32,75%</t>
   </si>
   <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
   </si>
   <si>
     <t>30,97%</t>
   </si>
   <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>0,57%</t>
@@ -1003,7 +1009,7 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,97%</t>
+    <t>2,36%</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -1015,52 +1021,52 @@
     <t>71,09%</t>
   </si>
   <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
   </si>
   <si>
     <t>65,24%</t>
   </si>
   <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
   </si>
   <si>
     <t>68,22%</t>
   </si>
   <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
   </si>
   <si>
     <t>28,91%</t>
   </si>
   <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
   </si>
   <si>
     <t>1,77%</t>
@@ -1069,91 +1075,82 @@
     <t>3,53%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>66,94%</t>
   </si>
   <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
   </si>
   <si>
     <t>63,71%</t>
   </si>
   <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>65,33%</t>
   </si>
   <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
   </si>
   <si>
     <t>30,06%</t>
   </si>
   <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
   </si>
   <si>
     <t>31,98%</t>
   </si>
   <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>28,07%</t>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>3,51%</t>
@@ -1165,13 +1162,13 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,38%</t>
+    <t>1,66%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,7%</t>
+    <t>0,83%</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA9CC8E-0E57-4DE2-A956-5A363BB2CCDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEDF354-08C6-4FA1-B0D0-A6C2E1F09545}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2443,10 +2440,10 @@
         <v>107</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -2455,13 +2452,13 @@
         <v>4885</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,7 +2479,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2497,7 +2494,7 @@
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2512,7 +2509,7 @@
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,7 +2530,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2548,7 +2545,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2563,7 +2560,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,13 +2628,13 @@
         <v>215313</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>278</v>
@@ -2646,7 +2643,7 @@
         <v>188071</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>119</v>
@@ -2751,10 +2748,10 @@
         <v>135</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -2763,13 +2760,13 @@
         <v>23963</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,7 +2787,7 @@
         <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2799,13 +2796,13 @@
         <v>696</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2814,13 +2811,13 @@
         <v>696</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,7 +2838,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2850,13 +2847,13 @@
         <v>661</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2865,7 +2862,7 @@
         <v>661</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>41</v>
@@ -2946,7 +2943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF12C5B-26D9-4338-93C8-98C53E1AC16E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2112C330-D592-4CDD-9AB9-208AC966E89E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3414,7 +3411,7 @@
         <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3426,13 @@
         <v>65043</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>113</v>
@@ -3444,13 +3441,13 @@
         <v>78228</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>206</v>
@@ -3459,13 +3456,13 @@
         <v>143272</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,10 +3480,10 @@
         <v>104</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -3495,13 +3492,13 @@
         <v>5628</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -3510,13 +3507,13 @@
         <v>16273</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3528,13 @@
         <v>1271</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3552,7 +3549,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3561,13 +3558,13 @@
         <v>1271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,7 +3585,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3603,7 +3600,7 @@
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3618,7 +3615,7 @@
         <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3683,13 @@
         <v>40096</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -3701,13 +3698,13 @@
         <v>40438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -3716,13 +3713,13 @@
         <v>80534</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3734,13 @@
         <v>15539</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -3752,13 +3749,13 @@
         <v>22305</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>54</v>
@@ -3767,13 +3764,13 @@
         <v>37844</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3785,13 @@
         <v>2297</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3809,7 +3806,7 @@
         <v>42</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -3818,13 +3815,13 @@
         <v>2297</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,7 +3842,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3860,7 +3857,7 @@
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3875,7 +3872,7 @@
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,7 +3893,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3905,13 +3902,13 @@
         <v>675</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3920,13 +3917,13 @@
         <v>675</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +3991,13 @@
         <v>217381</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H22" s="7">
         <v>278</v>
@@ -4009,13 +4006,13 @@
         <v>196583</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M22" s="7">
         <v>596</v>
@@ -4024,13 +4021,13 @@
         <v>413964</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +4042,13 @@
         <v>99470</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H23" s="7">
         <v>167</v>
@@ -4060,13 +4057,13 @@
         <v>116635</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M23" s="7">
         <v>310</v>
@@ -4075,13 +4072,13 @@
         <v>216105</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4093,13 @@
         <v>12942</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -4111,13 +4108,13 @@
         <v>7365</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -4126,13 +4123,13 @@
         <v>20306</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>113</v>
+        <v>259</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4144,13 @@
         <v>1271</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4168,7 +4165,7 @@
         <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -4177,13 +4174,13 @@
         <v>1271</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,7 +4201,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4213,13 +4210,13 @@
         <v>675</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4228,13 +4225,13 @@
         <v>675</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,7 +4306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45FFC15-E211-4644-8FC0-ED794AB5EB70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F12CF2-AD7E-49B3-801F-FA052D9A22CB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4326,7 +4323,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4433,13 +4430,13 @@
         <v>20113</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -4448,13 +4445,13 @@
         <v>21640</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -4463,13 +4460,13 @@
         <v>41753</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4481,13 @@
         <v>14170</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -4499,13 +4496,13 @@
         <v>8780</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -4514,13 +4511,13 @@
         <v>22951</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4532,13 @@
         <v>2355</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4550,13 +4547,13 @@
         <v>1394</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4565,13 +4562,13 @@
         <v>3749</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,7 +4589,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4607,7 +4604,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4622,7 +4619,7 @@
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,7 +4640,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4658,7 +4655,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4673,7 +4670,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4738,13 @@
         <v>165334</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H10" s="7">
         <v>228</v>
@@ -4756,13 +4753,13 @@
         <v>157129</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M10" s="7">
         <v>453</v>
@@ -4771,13 +4768,13 @@
         <v>322462</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4789,13 @@
         <v>71451</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H11" s="7">
         <v>115</v>
@@ -4807,13 +4804,13 @@
         <v>82061</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>213</v>
@@ -4822,13 +4819,13 @@
         <v>153512</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,10 +4843,10 @@
         <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>226</v>
+        <v>315</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -4861,10 +4858,10 @@
         <v>31</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>314</v>
+        <v>172</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -4873,13 +4870,13 @@
         <v>18782</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,7 +4897,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4930,7 +4927,7 @@
         <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,7 +4948,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4960,13 +4957,13 @@
         <v>993</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4975,13 +4972,13 @@
         <v>993</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5046,13 @@
         <v>54986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -5064,13 +5061,13 @@
         <v>48534</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M16" s="7">
         <v>143</v>
@@ -5079,13 +5076,13 @@
         <v>103521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5097,13 @@
         <v>22357</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -5115,13 +5112,13 @@
         <v>23238</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5130,13 +5127,13 @@
         <v>45596</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,7 +5154,7 @@
         <v>42</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -5166,13 +5163,13 @@
         <v>2625</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -5181,10 +5178,10 @@
         <v>2625</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>346</v>
+        <v>263</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>347</v>
@@ -5208,7 +5205,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5223,7 +5220,7 @@
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>348</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5238,7 +5235,7 @@
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>349</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,7 +5256,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5274,7 +5271,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>348</v>
+        <v>287</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5289,7 +5286,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>349</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5354,13 @@
         <v>240433</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H22" s="7">
         <v>327</v>
@@ -5372,13 +5369,13 @@
         <v>227303</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M22" s="7">
         <v>655</v>
@@ -5387,13 +5384,13 @@
         <v>467736</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5405,13 @@
         <v>107979</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H23" s="7">
         <v>160</v>
@@ -5423,13 +5420,13 @@
         <v>114080</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M23" s="7">
         <v>310</v>
@@ -5438,13 +5435,13 @@
         <v>222058</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5456,13 @@
         <v>10760</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -5477,10 +5474,10 @@
         <v>37</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -5489,13 +5486,13 @@
         <v>25157</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,7 +5513,7 @@
         <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5531,7 +5528,7 @@
         <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5546,7 +5543,7 @@
         <v>42</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,7 +5564,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5576,13 +5573,13 @@
         <v>993</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5591,13 +5588,13 @@
         <v>993</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP07A14-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A14-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A679F4B3-B913-4B59-9142-19A44EEAB4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCBCD192-15AC-4442-BC4F-A94857A26F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37820D80-0704-4B79-912F-9C4890B706E5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9F0BC8B8-66EB-4F59-AAE3-08B53606E56B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="371">
   <si>
     <t>Menores según frecuencia de sentirse feliz en casa en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,91 +73,91 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
     <t>55,88%</t>
   </si>
   <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
   </si>
   <si>
     <t>57,89%</t>
   </si>
   <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
     <t>39,98%</t>
   </si>
   <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
   </si>
   <si>
     <t>38,07%</t>
   </si>
   <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -169,12 +169,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>2,49%</t>
+  </si>
+  <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
     <t>1,3%</t>
   </si>
   <si>
@@ -187,988 +187,970 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
     <t>64,55%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
   </si>
   <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
   </si>
   <si>
     <t>33,75%</t>
   </si>
   <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>0,34%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
   </si>
   <si>
     <t>33,95%</t>
   </si>
   <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>4,73%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,66%</t>
+    <t>1,39%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,83%</t>
+    <t>0,69%</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEDF354-08C6-4FA1-B0D0-A6C2E1F09545}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7D2244-DB38-4A4E-8CDE-B6DFC0EE1B54}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1698,10 +1680,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7">
-        <v>26391</v>
+        <v>30289</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1713,10 +1695,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I4" s="7">
-        <v>30289</v>
+        <v>26391</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1752,7 +1734,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>18883</v>
+        <v>18386</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1767,7 +1749,7 @@
         <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>18386</v>
+        <v>18883</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1803,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>1956</v>
+        <v>1999</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1818,7 +1800,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>1999</v>
+        <v>1956</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1953,25 +1935,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50674</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="7">
         <v>71</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47230</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="7">
-        <v>76</v>
-      </c>
-      <c r="I9" s="7">
-        <v>50674</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>47</v>
@@ -2006,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="D10" s="7">
-        <v>153604</v>
+        <v>121856</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -2021,10 +2003,10 @@
         <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="I10" s="7">
-        <v>121856</v>
+        <v>153604</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -2057,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D11" s="7">
-        <v>76585</v>
+        <v>72106</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>58</v>
@@ -2072,10 +2054,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I11" s="7">
-        <v>72106</v>
+        <v>76585</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -2099,7 +2081,7 @@
         <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,34 +2090,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7350</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="7">
         <v>12</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>7773</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="7">
-        <v>11</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7350</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -2144,13 +2126,13 @@
         <v>15123</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,34 +2141,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>76</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2195,13 +2177,13 @@
         <v>696</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,34 +2192,34 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>661</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2246,13 +2228,13 @@
         <v>661</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,25 +2243,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>303</v>
+      </c>
+      <c r="D15" s="7">
+        <v>202670</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="7">
         <v>359</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237963</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="7">
-        <v>303</v>
-      </c>
-      <c r="I15" s="7">
-        <v>202670</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>47</v>
@@ -2308,40 +2290,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7">
+        <v>35925</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="7">
         <v>52</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>35318</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="7">
-        <v>51</v>
-      </c>
-      <c r="I16" s="7">
-        <v>35925</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>103</v>
@@ -2350,13 +2332,13 @@
         <v>71243</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,34 +2347,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>42</v>
+      </c>
+      <c r="D17" s="7">
+        <v>28869</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="7">
         <v>33</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>22251</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="7">
-        <v>42</v>
-      </c>
-      <c r="I17" s="7">
-        <v>28869</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -2401,13 +2383,13 @@
         <v>51120</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,31 +2398,31 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2060</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>2825</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="7">
-        <v>3</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2060</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>108</v>
@@ -2569,25 +2551,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>96</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66854</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="7">
         <v>89</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>60394</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="7">
-        <v>96</v>
-      </c>
-      <c r="I21" s="7">
-        <v>66854</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>47</v>
@@ -2622,10 +2604,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="D22" s="7">
-        <v>215313</v>
+        <v>188071</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>115</v>
@@ -2637,10 +2619,10 @@
         <v>117</v>
       </c>
       <c r="H22" s="7">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="I22" s="7">
-        <v>188071</v>
+        <v>215313</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>118</v>
@@ -2673,10 +2655,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D23" s="7">
-        <v>117720</v>
+        <v>119361</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>124</v>
@@ -2688,10 +2670,10 @@
         <v>126</v>
       </c>
       <c r="H23" s="7">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I23" s="7">
-        <v>119361</v>
+        <v>117720</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>127</v>
@@ -2724,34 +2706,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>17</v>
+      </c>
+      <c r="D24" s="7">
+        <v>11409</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" s="7">
         <v>19</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>12554</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="7">
-        <v>17</v>
-      </c>
-      <c r="I24" s="7">
-        <v>11409</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -2760,13 +2742,13 @@
         <v>23963</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,31 +2757,31 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>696</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>142</v>
@@ -2817,7 +2799,7 @@
         <v>41</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,34 +2808,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>661</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2868,7 +2850,7 @@
         <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,25 +2859,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>475</v>
+      </c>
+      <c r="D27" s="7">
+        <v>320198</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>345587</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="7">
-        <v>475</v>
-      </c>
-      <c r="I27" s="7">
-        <v>320198</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>47</v>
@@ -2924,7 +2906,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2943,7 +2925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2112C330-D592-4CDD-9AB9-208AC966E89E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6563BE65-B99D-4E92-A8E2-51947AD5B0EC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2960,7 +2942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3061,34 +3043,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7">
+        <v>35245</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="7">
         <v>38</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>26966</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="7">
-        <v>50</v>
-      </c>
-      <c r="I4" s="7">
-        <v>35245</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M4" s="7">
         <v>88</v>
@@ -3097,13 +3079,13 @@
         <v>62210</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,34 +3094,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7">
+        <v>16102</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="7">
         <v>27</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>18887</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H5" s="7">
-        <v>23</v>
-      </c>
-      <c r="I5" s="7">
-        <v>16102</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -3148,13 +3130,13 @@
         <v>34989</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,34 +3145,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1736</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1736</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -3199,13 +3181,13 @@
         <v>1736</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3223,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3256,7 +3238,7 @@
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,7 +3274,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3307,7 +3289,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,25 +3298,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>53083</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45853</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="7">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>53083</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>47</v>
@@ -3369,34 +3351,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>172</v>
+      </c>
+      <c r="D10" s="7">
+        <v>120900</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="7">
         <v>221</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>150319</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="7">
-        <v>172</v>
-      </c>
-      <c r="I10" s="7">
-        <v>120900</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>393</v>
@@ -3405,13 +3387,13 @@
         <v>271220</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,34 +3402,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>113</v>
+      </c>
+      <c r="D11" s="7">
+        <v>78228</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="7">
         <v>93</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>65043</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="7">
-        <v>113</v>
-      </c>
-      <c r="I11" s="7">
-        <v>78228</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>206</v>
@@ -3456,13 +3438,13 @@
         <v>143272</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,34 +3453,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5628</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="7">
         <v>16</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>10644</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H12" s="7">
-        <v>8</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5628</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -3507,13 +3489,13 @@
         <v>16273</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,34 +3504,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1271</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3558,13 +3540,13 @@
         <v>1271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,7 +3567,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3600,7 +3582,7 @@
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3615,7 +3597,7 @@
         <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,25 +3606,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>293</v>
+      </c>
+      <c r="D15" s="7">
+        <v>204757</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="7">
         <v>332</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>227278</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="7">
-        <v>293</v>
-      </c>
-      <c r="I15" s="7">
-        <v>204757</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>47</v>
@@ -3671,40 +3653,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>56</v>
+      </c>
+      <c r="D16" s="7">
+        <v>40438</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" s="7">
         <v>59</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>40096</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H16" s="7">
-        <v>56</v>
-      </c>
-      <c r="I16" s="7">
-        <v>40438</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -3713,13 +3695,13 @@
         <v>80534</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,34 +3710,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7">
+        <v>22305</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H17" s="7">
         <v>23</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>15539</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H17" s="7">
-        <v>31</v>
-      </c>
-      <c r="I17" s="7">
-        <v>22305</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>54</v>
@@ -3764,13 +3746,13 @@
         <v>37844</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,34 +3761,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>2297</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -3815,13 +3797,13 @@
         <v>2297</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3824,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3857,7 +3839,7 @@
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3872,7 +3854,7 @@
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,34 +3863,34 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>675</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3917,13 +3899,13 @@
         <v>675</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,25 +3914,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>88</v>
+      </c>
+      <c r="D21" s="7">
+        <v>63418</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="7">
         <v>85</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>57933</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="7">
-        <v>88</v>
-      </c>
-      <c r="I21" s="7">
-        <v>63418</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>47</v>
@@ -3985,34 +3967,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>278</v>
+      </c>
+      <c r="D22" s="7">
+        <v>196583</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H22" s="7">
         <v>318</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>217381</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H22" s="7">
-        <v>278</v>
-      </c>
-      <c r="I22" s="7">
-        <v>196583</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M22" s="7">
         <v>596</v>
@@ -4021,13 +4003,13 @@
         <v>413964</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,34 +4018,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>167</v>
+      </c>
+      <c r="D23" s="7">
+        <v>116635</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" s="7">
         <v>143</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>99470</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H23" s="7">
-        <v>167</v>
-      </c>
-      <c r="I23" s="7">
-        <v>116635</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M23" s="7">
         <v>310</v>
@@ -4072,13 +4054,13 @@
         <v>216105</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,34 +4069,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7365</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H24" s="7">
         <v>19</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>12942</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H24" s="7">
-        <v>10</v>
-      </c>
-      <c r="I24" s="7">
-        <v>7365</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -4123,13 +4105,13 @@
         <v>20306</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,34 +4120,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H25" s="7">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>1271</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -4174,13 +4156,13 @@
         <v>1271</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,34 +4171,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>675</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4231,7 +4213,7 @@
         <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,25 +4222,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>456</v>
+      </c>
+      <c r="D27" s="7">
+        <v>321258</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="7">
         <v>482</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>331064</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="7">
-        <v>456</v>
-      </c>
-      <c r="I27" s="7">
-        <v>321258</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>47</v>
@@ -4287,7 +4269,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F12CF2-AD7E-49B3-801F-FA052D9A22CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024C8B2A-0189-4B05-BF1E-F8A01C6704F3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4323,7 +4305,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4424,34 +4406,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7">
+        <v>21640</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H4" s="7">
         <v>27</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>20113</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H4" s="7">
-        <v>32</v>
-      </c>
-      <c r="I4" s="7">
-        <v>21640</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -4460,13 +4442,13 @@
         <v>41753</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,34 +4457,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8780</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" s="7">
         <v>21</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>14170</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H5" s="7">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8780</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -4511,13 +4493,13 @@
         <v>22951</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,34 +4508,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1394</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2355</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1394</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4562,13 +4544,13 @@
         <v>3749</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,7 +4571,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4604,7 +4586,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4619,7 +4601,7 @@
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,7 +4622,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4655,7 +4637,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4670,7 +4652,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,25 +4661,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31814</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>47</v>
@@ -4732,34 +4714,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>228</v>
+      </c>
+      <c r="D10" s="7">
+        <v>157129</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H10" s="7">
         <v>225</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>165334</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H10" s="7">
-        <v>228</v>
-      </c>
-      <c r="I10" s="7">
-        <v>157129</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M10" s="7">
         <v>453</v>
@@ -4768,13 +4750,13 @@
         <v>322462</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,34 +4765,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>115</v>
+      </c>
+      <c r="D11" s="7">
+        <v>82061</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H11" s="7">
         <v>98</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>71451</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H11" s="7">
-        <v>115</v>
-      </c>
-      <c r="I11" s="7">
-        <v>82061</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M11" s="7">
         <v>213</v>
@@ -4819,13 +4801,13 @@
         <v>153512</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,34 +4816,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10377</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H12" s="7">
         <v>12</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>8405</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H12" s="7">
-        <v>16</v>
-      </c>
-      <c r="I12" s="7">
-        <v>10377</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>172</v>
+        <v>309</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -4870,13 +4852,13 @@
         <v>18782</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,7 +4879,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4912,7 +4894,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4927,7 +4909,7 @@
         <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,34 +4918,34 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>993</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4972,13 +4954,13 @@
         <v>993</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,25 +4969,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>360</v>
+      </c>
+      <c r="D15" s="7">
+        <v>250559</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="7">
         <v>335</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>245190</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="7">
-        <v>360</v>
-      </c>
-      <c r="I15" s="7">
-        <v>250559</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>47</v>
@@ -5034,40 +5016,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>67</v>
+      </c>
+      <c r="D16" s="7">
+        <v>48534</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H16" s="7">
         <v>76</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>54986</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H16" s="7">
-        <v>67</v>
-      </c>
-      <c r="I16" s="7">
-        <v>48534</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M16" s="7">
         <v>143</v>
@@ -5076,13 +5058,13 @@
         <v>103521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,34 +5073,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7">
+        <v>23238</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H17" s="7">
         <v>31</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>22357</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H17" s="7">
-        <v>33</v>
-      </c>
-      <c r="I17" s="7">
-        <v>23238</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5127,13 +5109,13 @@
         <v>45596</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,34 +5124,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>2625</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2625</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -5178,13 +5160,13 @@
         <v>2625</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,7 +5187,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5220,7 +5202,7 @@
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5235,7 +5217,7 @@
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>204</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,7 +5238,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5271,7 +5253,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5286,7 +5268,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>204</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,25 +5277,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>104</v>
+      </c>
+      <c r="D21" s="7">
+        <v>74398</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="7">
         <v>107</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>77343</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="7">
-        <v>104</v>
-      </c>
-      <c r="I21" s="7">
-        <v>74398</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>47</v>
@@ -5348,34 +5330,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>327</v>
+      </c>
+      <c r="D22" s="7">
+        <v>227303</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H22" s="7">
         <v>328</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>240433</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H22" s="7">
-        <v>327</v>
-      </c>
-      <c r="I22" s="7">
-        <v>227303</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M22" s="7">
         <v>655</v>
@@ -5384,13 +5366,13 @@
         <v>467736</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,34 +5381,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>160</v>
+      </c>
+      <c r="D23" s="7">
+        <v>114080</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H23" s="7">
         <v>150</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>107979</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H23" s="7">
-        <v>160</v>
-      </c>
-      <c r="I23" s="7">
-        <v>114080</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M23" s="7">
         <v>310</v>
@@ -5435,13 +5417,13 @@
         <v>222058</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,34 +5432,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7">
+        <v>14397</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="7">
         <v>15</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>10760</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="H24" s="7">
-        <v>22</v>
-      </c>
-      <c r="I24" s="7">
-        <v>14397</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>37</v>
+        <v>361</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -5486,13 +5468,13 @@
         <v>25157</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>138</v>
+        <v>365</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,7 +5495,7 @@
         <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>373</v>
+        <v>254</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5528,7 +5510,7 @@
         <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>261</v>
+        <v>367</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5543,7 +5525,7 @@
         <v>42</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,34 +5534,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>993</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5588,13 +5570,13 @@
         <v>993</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,25 +5585,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>510</v>
+      </c>
+      <c r="D27" s="7">
+        <v>356772</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="7">
         <v>493</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>359172</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="7">
-        <v>510</v>
-      </c>
-      <c r="I27" s="7">
-        <v>356772</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>47</v>
@@ -5650,7 +5632,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
